--- a/released_outputs/combined/labels.xlsx
+++ b/released_outputs/combined/labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/millie/Documents/Oxford/GitRepo/Factors-associated-with-COVID-19-vaccination/released_outputs/combined/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3135E781-E12C-1743-9358-20D9D6DDFBD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775A2914-A248-C644-A5C7-442C720C65C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14120" xr2:uid="{E563CE55-00B2-CA44-9564-8A14780133EE}"/>
+    <workbookView xWindow="34040" yWindow="1420" windowWidth="25440" windowHeight="14120" xr2:uid="{E563CE55-00B2-CA44-9564-8A14780133EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,9 +171,6 @@
     <t>imd4</t>
   </si>
   <si>
-    <t>imd5 least deprived</t>
-  </si>
-  <si>
     <t>5 least deprived</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>ethnicityEthnicity not recorded</t>
+  </si>
+  <si>
+    <t>imd5 least deprived</t>
   </si>
 </sst>
 </file>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74E4245-72A1-D344-AC85-66884D06DDDE}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,16 +642,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -782,7 +782,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>19</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>19</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>19</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>19</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>19</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>19</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>19</v>
@@ -1089,8 +1089,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>45</v>
+      <c r="A33" t="s">
+        <v>78</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>40</v>
@@ -1099,147 +1099,147 @@
         <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
